--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.99291115915936246</v>
+        <v>0.99291116280886627</v>
       </c>
       <c r="C2">
-        <v>6.1543425094671278</v>
+        <v>6.1543425093915118</v>
       </c>
       <c r="D2">
-        <v>7.2290307999098502</v>
+        <v>7.2290307871662947</v>
       </c>
       <c r="E2">
-        <v>14.999561592861802</v>
+        <v>14.999561584164702</v>
       </c>
       <c r="F2">
-        <v>4.4497048064255722</v>
+        <v>4.4497047914755044</v>
       </c>
       <c r="G2">
-        <v>1.1053923315847243</v>
+        <v>1.1053923281554177</v>
       </c>
       <c r="H2">
-        <v>3.5179502545041075</v>
+        <v>3.5179502480120206</v>
       </c>
       <c r="I2">
-        <v>8.0853435150183302</v>
+        <v>8.085343513698902</v>
       </c>
       <c r="J2">
-        <v>9.6069485264587371</v>
+        <v>9.6069485164923947</v>
       </c>
       <c r="K2">
-        <v>2.7257838088786883</v>
+        <v>2.7257837967966125</v>
       </c>
       <c r="L2">
-        <v>2.4663022290066223</v>
+        <v>2.4663022295422508</v>
       </c>
       <c r="M2">
-        <v>-6.7715619935636795</v>
+        <v>-6.771561991574913</v>
       </c>
       <c r="N2">
-        <v>9.1267947016036004</v>
+        <v>9.1267947008125105</v>
       </c>
       <c r="O2">
-        <v>5.4757579181431169</v>
+        <v>5.4757579013464692</v>
       </c>
       <c r="P2">
-        <v>10.293144849156839</v>
+        <v>10.293144849407739</v>
       </c>
       <c r="Q2">
-        <v>-1.0644278163408174</v>
+        <v>-1.0644278223616013</v>
       </c>
       <c r="R2">
-        <v>-5.5736298429213846</v>
+        <v>-5.5736298643209068</v>
       </c>
       <c r="S2">
-        <v>18.624858161350829</v>
+        <v>18.62485817310035</v>
       </c>
       <c r="T2">
-        <v>16.044179192479071</v>
+        <v>16.044179205837118</v>
       </c>
       <c r="U2">
-        <v>-1.7119690302121882</v>
+        <v>-1.7119690507331455</v>
       </c>
       <c r="V2">
-        <v>3.2092806829442324</v>
+        <v>3.2092806661168893</v>
       </c>
       <c r="W2">
-        <v>-8.7474765987292855</v>
+        <v>-8.7474766070250993</v>
       </c>
       <c r="X2">
-        <v>-0.6694855627746108</v>
+        <v>-0.66948556513411006</v>
       </c>
       <c r="Y2">
-        <v>12.836929616171361</v>
+        <v>12.83692960008085</v>
       </c>
       <c r="Z2">
-        <v>8.4138007563718347</v>
+        <v>8.4138007356230915</v>
       </c>
       <c r="AA2">
-        <v>10.292096888243023</v>
+        <v>10.292096871624793</v>
       </c>
       <c r="AB2">
-        <v>7.3644913590610912</v>
+        <v>7.364491331626553</v>
       </c>
       <c r="AC2">
-        <v>-1.2264493342249381</v>
+        <v>-1.2264493460398</v>
       </c>
       <c r="AD2">
-        <v>14.481986763114605</v>
+        <v>14.481986731682667</v>
       </c>
       <c r="AE2">
-        <v>3.7591801921729555</v>
+        <v>3.7591801781050762</v>
       </c>
       <c r="AF2">
-        <v>8.0128362638583894</v>
+        <v>8.0128362501438843</v>
       </c>
       <c r="AG2">
-        <v>7.3600751073503545</v>
+        <v>7.3600750933696943</v>
       </c>
       <c r="AH2">
-        <v>10.070330466245075</v>
+        <v>10.070330451114792</v>
       </c>
       <c r="AI2">
-        <v>11.178502059805965</v>
+        <v>11.17850203322881</v>
       </c>
       <c r="AJ2">
-        <v>7.2941423594881627</v>
+        <v>7.2941423509140435</v>
       </c>
       <c r="AK2">
-        <v>8.5527900496636207</v>
+        <v>8.5527900371989531</v>
       </c>
       <c r="AL2">
-        <v>-4.7796613172235283</v>
+        <v>-4.7796613303647604</v>
       </c>
       <c r="AM2">
-        <v>8.1534275297684644</v>
+        <v>8.1534275168136787</v>
       </c>
       <c r="AN2">
-        <v>8.879737315809848</v>
+        <v>8.8797372951247269</v>
       </c>
       <c r="AO2">
-        <v>15.887507270896592</v>
+        <v>15.88750726090737</v>
       </c>
       <c r="AP2">
-        <v>12.121948930341532</v>
+        <v>12.121948906797527</v>
       </c>
       <c r="AQ2">
-        <v>-5.8848721113186286</v>
+        <v>-5.8848721239177095</v>
       </c>
       <c r="AR2">
-        <v>18.865783774805109</v>
+        <v>18.865783776404257</v>
       </c>
       <c r="AS2">
-        <v>13.545130860820748</v>
+        <v>13.545130838751604</v>
       </c>
       <c r="AT2">
-        <v>5.5479015856348042</v>
+        <v>5.5479015685110653</v>
       </c>
       <c r="AU2">
-        <v>10.025320549583341</v>
+        <v>10.025320520890979</v>
       </c>
       <c r="AV2">
-        <v>-0.61397416270681759</v>
+        <v>-0.61397418827150574</v>
       </c>
       <c r="AW2">
-        <v>2.5309930614864697</v>
+        <v>2.5309930435153234</v>
       </c>
       <c r="AX2">
-        <v>11.29512743227103</v>
+        <v>11.295127408898566</v>
       </c>
       <c r="AY2">
-        <v>16.245940248630284</v>
+        <v>16.245940230342946</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.6067173737152345</v>
+        <v>3.6067173639045151</v>
       </c>
       <c r="C3">
-        <v>2.4845524131883749</v>
+        <v>2.484552394140664</v>
       </c>
       <c r="D3">
-        <v>11.18105375773267</v>
+        <v>11.181053728291609</v>
       </c>
       <c r="E3">
-        <v>11.064193213753391</v>
+        <v>11.064193197590775</v>
       </c>
       <c r="F3">
-        <v>3.3982438731848177</v>
+        <v>3.3982438597974038</v>
       </c>
       <c r="G3">
-        <v>8.9958773100766436</v>
+        <v>8.9958773015383571</v>
       </c>
       <c r="H3">
-        <v>-3.9849268875269388</v>
+        <v>-3.9849268953696537</v>
       </c>
       <c r="I3">
-        <v>2.6047986373383409</v>
+        <v>2.604798628922758</v>
       </c>
       <c r="J3">
-        <v>11.173726466802506</v>
+        <v>11.17372646192176</v>
       </c>
       <c r="K3">
-        <v>20.927501377544381</v>
+        <v>20.927501378203594</v>
       </c>
       <c r="L3">
-        <v>11.331873402119079</v>
+        <v>11.331873393005431</v>
       </c>
       <c r="M3">
-        <v>-7.0781345829004749E-2</v>
+        <v>-7.1059024011219662E-2</v>
       </c>
       <c r="N3">
-        <v>5.9304623650077275</v>
+        <v>5.9304623509933521</v>
       </c>
       <c r="O3">
-        <v>-11.416637662167176</v>
+        <v>-11.416637681533444</v>
       </c>
       <c r="P3">
-        <v>9.054297190756202</v>
+        <v>9.0542971624314248</v>
       </c>
       <c r="Q3">
-        <v>4.0060360665664163</v>
+        <v>4.0060360590720094</v>
       </c>
       <c r="R3">
-        <v>-1.8689392742777713</v>
+        <v>-1.8689392852975644</v>
       </c>
       <c r="S3">
-        <v>14.092243799494334</v>
+        <v>14.092243793325657</v>
       </c>
       <c r="T3">
-        <v>15.057150492783713</v>
+        <v>15.057150477824742</v>
       </c>
       <c r="U3">
-        <v>6.8728889753597358</v>
+        <v>6.8728889627256748</v>
       </c>
       <c r="V3">
-        <v>8.5620844695077309</v>
+        <v>8.5620844602985073</v>
       </c>
       <c r="W3">
-        <v>-1.7813145675391127</v>
+        <v>-1.7813145785250555</v>
       </c>
       <c r="X3">
-        <v>-3.6295867422566772</v>
+        <v>-3.629586752849967</v>
       </c>
       <c r="Y3">
-        <v>16.733747698091541</v>
+        <v>16.733747675925521</v>
       </c>
       <c r="Z3">
-        <v>10.133870958005069</v>
+        <v>10.133870935038907</v>
       </c>
       <c r="AA3">
-        <v>10.45339875073023</v>
+        <v>10.453398732243272</v>
       </c>
       <c r="AB3">
-        <v>8.9481268059214116</v>
+        <v>8.9481267818437331</v>
       </c>
       <c r="AC3">
-        <v>13.081878976520507</v>
+        <v>13.081878965281817</v>
       </c>
       <c r="AD3">
-        <v>15.009948013660882</v>
+        <v>15.009947994796526</v>
       </c>
       <c r="AE3">
-        <v>9.2448652337923676</v>
+        <v>9.2448652263061462</v>
       </c>
       <c r="AF3">
-        <v>7.7336911066258764</v>
+        <v>7.7336910902527123</v>
       </c>
       <c r="AG3">
-        <v>3.1849893342703481</v>
+        <v>3.1849893228111696</v>
       </c>
       <c r="AH3">
-        <v>1.3945045734323998</v>
+        <v>1.3945045592761574</v>
       </c>
       <c r="AI3">
-        <v>32.793048927035414</v>
+        <v>32.793048904285357</v>
       </c>
       <c r="AJ3">
-        <v>13.625890415366293</v>
+        <v>13.625890406930637</v>
       </c>
       <c r="AK3">
-        <v>9.8370624786559375</v>
+        <v>9.8370624566395719</v>
       </c>
       <c r="AL3">
-        <v>6.6817562411843241</v>
+        <v>6.6817562161363853</v>
       </c>
       <c r="AM3">
-        <v>6.1208699218962153</v>
+        <v>6.1208698948263134</v>
       </c>
       <c r="AN3">
-        <v>-9.5823142484479504</v>
+        <v>-9.5823142582278038</v>
       </c>
       <c r="AO3">
-        <v>13.619143184682862</v>
+        <v>13.619143143000535</v>
       </c>
       <c r="AP3">
-        <v>1.1058788756698803</v>
+        <v>1.1058788587521207</v>
       </c>
       <c r="AQ3">
-        <v>7.5793651927728476</v>
+        <v>7.5793651693600381</v>
       </c>
       <c r="AR3">
-        <v>24.823087091976952</v>
+        <v>24.823087089272981</v>
       </c>
       <c r="AS3">
-        <v>11.626488666816542</v>
+        <v>11.626488652688778</v>
       </c>
       <c r="AT3">
-        <v>8.1807036925165164</v>
+        <v>8.1807036648577309</v>
       </c>
       <c r="AU3">
-        <v>5.9296057726504472</v>
+        <v>5.9296057716593609</v>
       </c>
       <c r="AV3">
-        <v>0.59377037524214415</v>
+        <v>0.59377035668563849</v>
       </c>
       <c r="AW3">
-        <v>-0.46247752686666388</v>
+        <v>-0.46247754300512156</v>
       </c>
       <c r="AX3">
-        <v>7.0149548326692681</v>
+        <v>7.014954815773379</v>
       </c>
       <c r="AY3">
-        <v>19.824544592453968</v>
+        <v>19.824544561676653</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>0.99291116280886627</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>6.1543425093915118</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>7.2290307871662947</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>14.999561584164702</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>4.4497047914755044</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.1053923281554177</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3.5179502480120206</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>8.085343513698902</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>9.6069485164923947</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2.7257837967966125</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2.4663022295422508</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-6.771561991574913</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>9.1267947008125105</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>5.4757579013464692</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>10.293144849407739</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-1.0644278223616013</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-5.5736298643209068</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>18.62485817310035</v>
+        <v>12.650316900804711</v>
       </c>
       <c r="T2">
         <v>16.044179205837118</v>
@@ -588,55 +477,55 @@
         <v>8.4138007356230915</v>
       </c>
       <c r="AA2">
-        <v>10.292096871624793</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>7.364491331626553</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-1.2264493460398</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>14.481986731682667</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>3.7591801781050762</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>8.0128362501438843</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>7.3600750933696943</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>10.070330451114792</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>11.17850203322881</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>7.2941423509140435</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>8.5527900371989531</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-4.7796613303647604</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>8.1534275168136787</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>8.8797372951247269</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>15.88750726090737</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>12.121948906797527</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-5.8848721239177095</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>18.865783776404257</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>3.6067173639045151</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2.484552394140664</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>11.181053728291609</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>11.064193197590775</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>3.3982438597974038</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>8.9958773015383571</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-3.9849268953696537</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2.604798628922758</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>11.17372646192176</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>20.927501378203594</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>11.331873393005431</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-7.1059024011219662E-2</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>5.9304623509933521</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-11.416637681533444</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>9.0542971624314248</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>4.0060360590720094</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>-1.8689392852975644</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>14.092243793325657</v>
@@ -743,55 +629,55 @@
         <v>10.133870935038907</v>
       </c>
       <c r="AA3">
-        <v>10.453398732243272</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>8.9481267818437331</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>13.081878965281817</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>15.009947994796526</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>9.2448652263061462</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>7.7336910902527123</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>3.1849893228111696</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>1.3945045592761574</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>32.793048904285357</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>13.625890406930637</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>9.8370624566395719</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>6.6817562161363853</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>6.1208698948263134</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-9.5823142582278038</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>13.619143143000535</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.1058788587521207</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>7.5793651693600381</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>24.823087089272981</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,11 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.99291115915936246</v>
-      </c>
       <c r="C2">
-        <v>3.4343588737060315</v>
-      </c>
-      <c r="D2">
-        <v>7.2290307999098502</v>
+        <v>-5.5736298643209068</v>
       </c>
       <c r="E2">
-        <v>14.999561592861802</v>
+        <v>-5.8848721239177095</v>
       </c>
       <c r="F2">
         <v>4.4497048064255722</v>
@@ -673,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.6067173737152345</v>
+        <v>-6.240402481620599</v>
       </c>
       <c r="C3">
-        <v>2.4845524131883749</v>
+        <v>-1.8689392852975644</v>
       </c>
       <c r="D3">
-        <v>11.18105375773267</v>
+        <v>-8.9813355715450243</v>
       </c>
       <c r="E3">
-        <v>11.064193213753391</v>
+        <v>9.1157060016048774</v>
       </c>
       <c r="F3">
         <v>3.3982438731848177</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.99291115915936246</v>
-      </c>
-      <c r="C2">
-        <v>3.4343588737060315</v>
+        <v>7.9032871048677933</v>
       </c>
       <c r="D2">
-        <v>7.2290307999098502</v>
-      </c>
-      <c r="E2">
-        <v>14.999561592861802</v>
+        <v>8.1534275168136787</v>
       </c>
       <c r="F2">
         <v>4.4497048064255722</v>
@@ -664,16 +653,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.6067173737152345</v>
+        <v>5.9304623509933521</v>
       </c>
       <c r="C3">
-        <v>2.4845524131883749</v>
+        <v>-6.240402481620599</v>
       </c>
       <c r="D3">
-        <v>11.18105375773267</v>
+        <v>6.1208698948263134</v>
       </c>
       <c r="E3">
-        <v>17.842667803298099</v>
+        <v>-8.9813355715450243</v>
       </c>
       <c r="F3">
         <v>3.3982438731848177</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_elong_GM_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,139 +513,145 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>0.99291116280886627</v>
+      </c>
+      <c r="C2">
+        <v>3.4343588670587053</v>
+      </c>
+      <c r="D2">
+        <v>7.2290307871662947</v>
+      </c>
+      <c r="E2">
+        <v>14.999561584164702</v>
+      </c>
+      <c r="F2">
+        <v>4.4497047914755044</v>
+      </c>
+      <c r="G2">
+        <v>3.7280072477560608</v>
+      </c>
+      <c r="H2">
+        <v>3.5179502480120206</v>
+      </c>
+      <c r="I2">
+        <v>11.335316399386514</v>
+      </c>
+      <c r="J2">
+        <v>9.6069485164923947</v>
+      </c>
+      <c r="K2">
+        <v>2.7257837967966125</v>
+      </c>
+      <c r="L2">
+        <v>1.889591743153531</v>
+      </c>
+      <c r="M2">
+        <v>-0.11274145731553631</v>
+      </c>
+      <c r="N2">
         <v>7.9032871048677933</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>11.227265129565936</v>
+      </c>
+      <c r="Q2">
+        <v>-1.0644278223616013</v>
+      </c>
+      <c r="R2">
+        <v>-5.5736298643209068</v>
+      </c>
+      <c r="T2">
+        <v>12.842917255664553</v>
+      </c>
+      <c r="U2">
+        <v>-1.7119690507331455</v>
+      </c>
+      <c r="V2">
+        <v>5.7946802328721745</v>
+      </c>
+      <c r="W2">
+        <v>-8.7474766070250993</v>
+      </c>
+      <c r="X2">
+        <v>-0.66948556513411006</v>
+      </c>
+      <c r="Y2">
+        <v>12.83692960008085</v>
+      </c>
+      <c r="Z2">
+        <v>8.4138007356230915</v>
+      </c>
+      <c r="AA2">
+        <v>10.292096871624793</v>
+      </c>
+      <c r="AB2">
+        <v>7.364491331626553</v>
+      </c>
+      <c r="AC2">
+        <v>-1.2264493460398</v>
+      </c>
+      <c r="AD2">
+        <v>14.481986731682667</v>
+      </c>
+      <c r="AE2">
+        <v>3.7591801781050762</v>
+      </c>
+      <c r="AF2">
+        <v>8.0128362501438843</v>
+      </c>
+      <c r="AG2">
+        <v>7.3600750933696943</v>
+      </c>
+      <c r="AH2">
+        <v>10.070330451114792</v>
+      </c>
+      <c r="AI2">
+        <v>11.17850203322881</v>
+      </c>
+      <c r="AJ2">
+        <v>7.2941423509140435</v>
+      </c>
+      <c r="AK2">
+        <v>8.5527900371989531</v>
+      </c>
+      <c r="AL2">
+        <v>-4.7796613303647604</v>
+      </c>
+      <c r="AM2">
         <v>8.1534275168136787</v>
       </c>
-      <c r="F2">
-        <v>4.4497048064255722</v>
-      </c>
-      <c r="G2">
-        <v>3.7280072461753946</v>
-      </c>
-      <c r="H2">
-        <v>3.5179502545041075</v>
-      </c>
-      <c r="I2">
-        <v>11.335316412546334</v>
-      </c>
-      <c r="J2">
-        <v>9.6069485264587371</v>
-      </c>
-      <c r="K2">
-        <v>2.7257838088786883</v>
-      </c>
-      <c r="L2">
-        <v>1.8895917530032591</v>
-      </c>
-      <c r="M2">
-        <v>-0.1127414652015517</v>
-      </c>
-      <c r="N2">
-        <v>7.903287111420866</v>
-      </c>
-      <c r="P2">
-        <v>11.227265127434606</v>
-      </c>
-      <c r="Q2">
-        <v>-1.0644278163408174</v>
-      </c>
-      <c r="R2">
-        <v>-5.5736298429213846</v>
-      </c>
-      <c r="T2">
-        <v>12.842917257113768</v>
-      </c>
-      <c r="U2">
-        <v>-1.7119690302121882</v>
-      </c>
-      <c r="V2">
-        <v>5.7946802622111022</v>
-      </c>
-      <c r="W2">
-        <v>-8.7474765987292855</v>
-      </c>
-      <c r="X2">
-        <v>-0.6694855627746108</v>
-      </c>
-      <c r="Y2">
-        <v>12.836929616171361</v>
-      </c>
-      <c r="Z2">
-        <v>8.4138007563718347</v>
-      </c>
-      <c r="AA2">
-        <v>10.292096888243023</v>
-      </c>
-      <c r="AB2">
-        <v>7.3644913590610912</v>
-      </c>
-      <c r="AC2">
-        <v>-1.2264493342249381</v>
-      </c>
-      <c r="AD2">
-        <v>14.481986763114605</v>
-      </c>
-      <c r="AE2">
-        <v>3.7591801921729555</v>
-      </c>
-      <c r="AF2">
-        <v>8.0128362638583894</v>
-      </c>
-      <c r="AG2">
-        <v>7.3600751073503545</v>
-      </c>
-      <c r="AH2">
-        <v>10.070330466245075</v>
-      </c>
-      <c r="AI2">
-        <v>11.178502059805965</v>
-      </c>
-      <c r="AJ2">
-        <v>7.2941423594881627</v>
-      </c>
-      <c r="AK2">
-        <v>8.5527900496636207</v>
-      </c>
-      <c r="AL2">
-        <v>-4.7796613172235283</v>
-      </c>
-      <c r="AM2">
-        <v>8.1534275297684644</v>
-      </c>
       <c r="AO2">
-        <v>15.887507270896592</v>
+        <v>15.88750726090737</v>
       </c>
       <c r="AP2">
-        <v>14.256268401511548</v>
+        <v>14.256268381420327</v>
       </c>
       <c r="AQ2">
-        <v>-5.8848721113186286</v>
+        <v>-5.8848721239177095</v>
       </c>
       <c r="AR2">
-        <v>18.865783774805109</v>
+        <v>18.865783776404257</v>
       </c>
       <c r="AS2">
-        <v>13.545130860820748</v>
+        <v>13.545130838751604</v>
       </c>
       <c r="AT2">
-        <v>5.5479015856348042</v>
+        <v>5.5479015685110653</v>
       </c>
       <c r="AU2">
-        <v>4.6557768066656777</v>
+        <v>4.6557767851125291</v>
       </c>
       <c r="AV2">
-        <v>-0.61397416270681759</v>
+        <v>-0.61397418827150574</v>
       </c>
       <c r="AW2">
-        <v>2.5309930614864697</v>
+        <v>2.5309930435153234</v>
       </c>
       <c r="AX2">
-        <v>11.29512743227103</v>
+        <v>11.295127408898566</v>
       </c>
       <c r="AY2">
-        <v>16.245940248630284</v>
+        <v>16.245940230342946</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -653,154 +659,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>3.6067173639045151</v>
+      </c>
+      <c r="C3">
+        <v>2.484552394140664</v>
+      </c>
+      <c r="D3">
+        <v>11.181053728291609</v>
+      </c>
+      <c r="E3">
+        <v>17.842667784409485</v>
+      </c>
+      <c r="F3">
+        <v>3.3982438597974038</v>
+      </c>
+      <c r="G3">
+        <v>8.9958773015383571</v>
+      </c>
+      <c r="H3">
+        <v>-3.9849268953696537</v>
+      </c>
+      <c r="I3">
+        <v>2.604798628922758</v>
+      </c>
+      <c r="J3">
+        <v>11.17372646192176</v>
+      </c>
+      <c r="K3">
+        <v>17.148763825662407</v>
+      </c>
+      <c r="L3">
+        <v>11.331873393005431</v>
+      </c>
+      <c r="M3">
+        <v>-4.7787212210693468</v>
+      </c>
+      <c r="N3">
         <v>5.9304623509933521</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>-6.240402481620599</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>9.0542971624314248</v>
+      </c>
+      <c r="Q3">
+        <v>4.0060360590720094</v>
+      </c>
+      <c r="R3">
+        <v>-1.8689392852975644</v>
+      </c>
+      <c r="S3">
+        <v>14.092243793325657</v>
+      </c>
+      <c r="T3">
+        <v>15.057150477824742</v>
+      </c>
+      <c r="U3">
+        <v>6.8728889627256748</v>
+      </c>
+      <c r="V3">
+        <v>9.9520843163352168</v>
+      </c>
+      <c r="W3">
+        <v>-1.7813145785250555</v>
+      </c>
+      <c r="X3">
+        <v>-3.629586752849967</v>
+      </c>
+      <c r="Y3">
+        <v>16.733747675925521</v>
+      </c>
+      <c r="Z3">
+        <v>10.133870935038907</v>
+      </c>
+      <c r="AA3">
+        <v>10.453398732243272</v>
+      </c>
+      <c r="AB3">
+        <v>8.9481267818437331</v>
+      </c>
+      <c r="AC3">
+        <v>13.081878965281817</v>
+      </c>
+      <c r="AD3">
+        <v>15.009947994796526</v>
+      </c>
+      <c r="AE3">
+        <v>9.2448652263061462</v>
+      </c>
+      <c r="AF3">
+        <v>7.7336910902527123</v>
+      </c>
+      <c r="AG3">
+        <v>3.1849893228111696</v>
+      </c>
+      <c r="AH3">
+        <v>1.3945045592761574</v>
+      </c>
+      <c r="AI3">
+        <v>10.095247213215984</v>
+      </c>
+      <c r="AJ3">
+        <v>13.625890406930637</v>
+      </c>
+      <c r="AK3">
+        <v>9.8370624566395719</v>
+      </c>
+      <c r="AL3">
+        <v>6.6817562161363853</v>
+      </c>
+      <c r="AM3">
         <v>6.1208698948263134</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-8.9813355715450243</v>
       </c>
-      <c r="F3">
-        <v>3.3982438731848177</v>
-      </c>
-      <c r="G3">
-        <v>8.9958773100766436</v>
-      </c>
-      <c r="H3">
-        <v>-3.9849268875269388</v>
-      </c>
-      <c r="I3">
-        <v>2.6047986373383409</v>
-      </c>
-      <c r="J3">
-        <v>11.173726466802506</v>
-      </c>
-      <c r="K3">
-        <v>17.148763833635805</v>
-      </c>
-      <c r="L3">
-        <v>11.331873402119079</v>
-      </c>
-      <c r="M3">
-        <v>-4.7785148667116957</v>
-      </c>
-      <c r="N3">
-        <v>5.9304623650077275</v>
-      </c>
-      <c r="O3">
-        <v>-6.2404024406372542</v>
-      </c>
-      <c r="P3">
-        <v>9.054297190756202</v>
-      </c>
-      <c r="Q3">
-        <v>4.0060360665664163</v>
-      </c>
-      <c r="R3">
-        <v>-1.8689392742777713</v>
-      </c>
-      <c r="S3">
-        <v>14.092243799494334</v>
-      </c>
-      <c r="T3">
-        <v>15.057150492783713</v>
-      </c>
-      <c r="U3">
-        <v>6.8728889753597358</v>
-      </c>
-      <c r="V3">
-        <v>9.9520843189036938</v>
-      </c>
-      <c r="W3">
-        <v>-1.7813145675391127</v>
-      </c>
-      <c r="X3">
-        <v>-3.6295867422566772</v>
-      </c>
-      <c r="Y3">
-        <v>16.733747698091541</v>
-      </c>
-      <c r="Z3">
-        <v>10.133870958005069</v>
-      </c>
-      <c r="AA3">
-        <v>10.45339875073023</v>
-      </c>
-      <c r="AB3">
-        <v>8.9481268059214116</v>
-      </c>
-      <c r="AC3">
-        <v>13.081878976520507</v>
-      </c>
-      <c r="AD3">
-        <v>15.009948013660882</v>
-      </c>
-      <c r="AE3">
-        <v>9.2448652337923676</v>
-      </c>
-      <c r="AF3">
-        <v>7.7336911066258764</v>
-      </c>
-      <c r="AG3">
-        <v>3.1849893342703481</v>
-      </c>
-      <c r="AH3">
-        <v>1.3945045734323998</v>
-      </c>
-      <c r="AI3">
-        <v>10.095247240829423</v>
-      </c>
-      <c r="AJ3">
-        <v>13.625890415366293</v>
-      </c>
-      <c r="AK3">
-        <v>9.8370624786559375</v>
-      </c>
-      <c r="AL3">
-        <v>6.6817562411843241</v>
-      </c>
-      <c r="AM3">
-        <v>6.1208699218962153</v>
-      </c>
-      <c r="AN3">
-        <v>-8.9813355587850907</v>
-      </c>
       <c r="AO3">
-        <v>13.619143184682862</v>
+        <v>13.619143143000535</v>
       </c>
       <c r="AP3">
-        <v>1.1058788756698803</v>
+        <v>1.1058788587521207</v>
       </c>
       <c r="AQ3">
-        <v>9.1157060061236024</v>
+        <v>9.1157060016048774</v>
       </c>
       <c r="AR3">
-        <v>24.823087091976952</v>
+        <v>24.823087089272981</v>
       </c>
       <c r="AS3">
-        <v>11.626488666816542</v>
+        <v>11.626488652688778</v>
       </c>
       <c r="AT3">
-        <v>8.1807036925165164</v>
+        <v>8.1807036648577309</v>
       </c>
       <c r="AU3">
-        <v>6.1803716397873458</v>
+        <v>6.1803716576964618</v>
       </c>
       <c r="AV3">
-        <v>0.59377037524214415</v>
+        <v>0.59377035668563849</v>
       </c>
       <c r="AW3">
-        <v>-0.46247752686666388</v>
+        <v>-0.46247754300512156</v>
       </c>
       <c r="AX3">
-        <v>7.0149548326692681</v>
+        <v>7.014954815773379</v>
       </c>
       <c r="AY3">
-        <v>19.824544592453968</v>
+        <v>19.824544561676653</v>
       </c>
     </row>
   </sheetData>
